--- a/Data/model_outputs_scenario_4/total_carbon_emissions_TEK27_only.xlsx
+++ b/Data/model_outputs_scenario_4/total_carbon_emissions_TEK27_only.xlsx
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>781284099.042969</v>
+        <v>781284099.0429691</v>
       </c>
     </row>
     <row r="85">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>794992188.1620982</v>
+        <v>794992188.1620981</v>
       </c>
     </row>
     <row r="101">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>805563842.2291137</v>
+        <v>805563842.2291136</v>
       </c>
     </row>
     <row r="111">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>812777698.5338339</v>
+        <v>812777698.5338341</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>814050681.368335</v>
+        <v>814050681.3683348</v>
       </c>
     </row>
     <row r="118">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>816662623.8923469</v>
+        <v>816662623.8923467</v>
       </c>
     </row>
     <row r="120">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>820750973.5448246</v>
+        <v>820750973.5448244</v>
       </c>
     </row>
     <row r="123">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>823597300.6473988</v>
+        <v>823597300.6473987</v>
       </c>
     </row>
     <row r="125">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>829601013.6781507</v>
+        <v>829601013.6781504</v>
       </c>
     </row>
     <row r="129">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>850520235.8666422</v>
+        <v>850520235.8666424</v>
       </c>
     </row>
     <row r="141">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>867422284.9787726</v>
+        <v>867422284.9787725</v>
       </c>
     </row>
     <row r="149">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>876938875.5426832</v>
+        <v>876938875.5426834</v>
       </c>
     </row>
     <row r="153">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>889963062.3496447</v>
+        <v>889963062.3496444</v>
       </c>
     </row>
     <row r="158">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>898428789.1534573</v>
+        <v>898428789.1534574</v>
       </c>
     </row>
     <row r="161">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>904362022.6018957</v>
+        <v>904362022.6018956</v>
       </c>
     </row>
     <row r="163">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>910536667.1775515</v>
+        <v>910536667.1775516</v>
       </c>
     </row>
     <row r="165">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>916961376.9849801</v>
+        <v>916961376.9849799</v>
       </c>
     </row>
     <row r="167">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>923644642.8865224</v>
+        <v>923644642.8865225</v>
       </c>
     </row>
     <row r="169">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>934172026.0615629</v>
+        <v>934172026.0615631</v>
       </c>
     </row>
     <row r="172">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>941538132.2237443</v>
+        <v>941538132.2237444</v>
       </c>
     </row>
     <row r="174">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>957142623.0143224</v>
+        <v>957142623.0143226</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>961232127.8310823</v>
+        <v>961232127.8310825</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>965397523.459709</v>
+        <v>965397523.4597089</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>969642182.5412047</v>
+        <v>969642182.5412046</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>973964984.2267644</v>
+        <v>973964984.2267642</v>
       </c>
     </row>
     <row r="182">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>982853138.764902</v>
+        <v>982853138.7649019</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>987420715.6131647</v>
+        <v>987420715.6131645</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>992070267.993637</v>
+        <v>992070267.9936371</v>
       </c>
     </row>
     <row r="186">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1001624561.99572</v>
+        <v>1001624561.995719</v>
       </c>
     </row>
     <row r="188">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1104088067.001835</v>
+        <v>1104088067.001834</v>
       </c>
     </row>
     <row r="206">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1182992473.864309</v>
+        <v>1182992473.864308</v>
       </c>
     </row>
     <row r="217">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1223446640.239202</v>
+        <v>1223446640.239201</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1231903363.61189</v>
+        <v>1231903363.611889</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1240484682.575071</v>
+        <v>1240484682.575072</v>
       </c>
     </row>
     <row r="224">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1538419846.3623</v>
+        <v>1538419846.362301</v>
       </c>
     </row>
     <row r="252">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1591543440.266508</v>
+        <v>1591543440.266507</v>
       </c>
     </row>
     <row r="256">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1738579069.139827</v>
+        <v>1738579069.139826</v>
       </c>
     </row>
     <row r="266">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>2172625287.280722</v>
+        <v>2172625333.251038</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>2195197390.620488</v>
+        <v>2195197436.494849</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2218127371.952832</v>
+        <v>2218127353.207661</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>2241420529.115241</v>
+        <v>2241420559.653488</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>2265084740.930285</v>
+        <v>2265084711.526632</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2289125743.032732</v>
+        <v>2289125771.329904</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2313550956.556423</v>
+        <v>2313550974.217327</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2338367149.143146</v>
+        <v>2338367175.311728</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2363581771.233509</v>
+        <v>2363581746.087123</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>2389201795.333169</v>
+        <v>2389201819.485301</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>2415234256.891438</v>
+        <v>2415234278.367064</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2441687157.174616</v>
+        <v>2441687056.946504</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>2468567792.178886</v>
+        <v>2468567842.123678</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2495883090.531524</v>
+        <v>2495883116.810068</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2523642171.853259</v>
+        <v>2523642095.960995</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2546397222.933543</v>
+        <v>2546397349.351111</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2569543266.606255</v>
+        <v>2569543177.118774</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2593084191.220693</v>
+        <v>2593084240.496034</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2617028370.557824</v>
+        <v>2617028376.007223</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2641382499.224879</v>
+        <v>2641382496.265981</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2666153347.790795</v>
+        <v>2666153378.543373</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>2691348922.845101</v>
+        <v>2691349007.949938</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2716975282.034798</v>
+        <v>2716975237.19917</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2743040002.718632</v>
+        <v>2743040022.135195</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2769550874.643116</v>
+        <v>2769550872.690308</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2796514556.13952</v>
+        <v>2796514601.267698</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>2823938735.967266</v>
+        <v>2823938820.68813</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>2851830314.544661</v>
+        <v>2851830307.913593</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>2880196514.823741</v>
+        <v>2880196393.828556</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2909045897.426254</v>
+        <v>2909045680.754371</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2938383861.784703</v>
+        <v>2938384084.677053</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2968219339.919059</v>
+        <v>2968219355.618719</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2998559104.575503</v>
+        <v>2998559152.237212</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>3029409775.278718</v>
+        <v>3029409770.648484</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>3060779471.391999</v>
+        <v>3060779587.030458</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>3092675145.099616</v>
+        <v>3092675052.943629</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>3125103990.42427</v>
+        <v>3125104056.632419</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>3158073061.618378</v>
+        <v>3158072967.33211</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>3191589103.646747</v>
+        <v>3191589006.874227</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>3225659574.11437</v>
+        <v>3225659492.028905</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>3260290741.555774</v>
+        <v>3260290701.946008</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>3295489718.565053</v>
+        <v>3295489791.702199</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>3331263078.339531</v>
+        <v>3331263053.566698</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>3367617064.761317</v>
+        <v>3367616984.476006</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>3404558246.714243</v>
+        <v>3404558151.261822</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>3442092573.158</v>
+        <v>3442092716.680489</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>3480226217.998137</v>
+        <v>3480226224.080346</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>3518964892.933471</v>
+        <v>3518964877.82656</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>3558314317.45548</v>
+        <v>3558314462.966192</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>3598279861.921421</v>
+        <v>3598279826.595675</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>3638866324.59538</v>
+        <v>3638866228.740432</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>3680079083.310665</v>
+        <v>3680079138.285304</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>3721922662.792175</v>
+        <v>3721922775.954197</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>3764401887.925802</v>
+        <v>3764401812.533722</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>3807519581.149627</v>
+        <v>3807519607.950839</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>3851280592.603827</v>
+        <v>3851280570.475049</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>3895688455.010924</v>
+        <v>3895688483.118756</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>3940745780.369897</v>
+        <v>3940745772.742727</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>3986455910.527322</v>
+        <v>3986455949.574773</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>4032820788.084305</v>
+        <v>4032820911.403022</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>4079842585.222016</v>
+        <v>4079842576.559479</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>4127522841.10197</v>
+        <v>4127522789.399137</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>4175863761.462976</v>
+        <v>4175863656.099324</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>4224864508.154955</v>
+        <v>4224864446.419225</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>4274526820.67029</v>
+        <v>4274526867.4704</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>4324849902.98123</v>
+        <v>4324849878.421122</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>4375833920.037481</v>
+        <v>4375834014.315032</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>4427477055.933684</v>
+        <v>4427476993.192662</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>4479778202.967784</v>
+        <v>4479778184.725566</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>4532735406.513313</v>
+        <v>4532735337.565764</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>4586233014.314321</v>
+        <v>4586233030.035168</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>4640380121.005164</v>
+        <v>4640380132.293097</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>4695172944.802496</v>
+        <v>4695172980.985468</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>4750607228.827269</v>
+        <v>4750607165.725166</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>4806678440.778738</v>
+        <v>4806678639.551359</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>4863381760.963952</v>
+        <v>4863381741.326976</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>4920710556.092194</v>
+        <v>4920710650.066483</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>4978659179.002611</v>
+        <v>4978659117.597632</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>5037220407.123239</v>
+        <v>5037220428.055993</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>5096386763.295958</v>
+        <v>5096386798.010973</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>5156150457.138123</v>
+        <v>5156150381.948576</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>5216502299.650131</v>
+        <v>5216502273.846391</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>5277433030.518326</v>
+        <v>5277432972.546794</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>5338933208.514432</v>
+        <v>5338933132.369826</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>5400992156.037694</v>
+        <v>5400992200.661777</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>5463738975.055788</v>
+        <v>5463738934.750532</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>5527022938.970934</v>
+        <v>5527022841.680874</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>5590831928.354095</v>
+        <v>5590831932.916029</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>5655152845.349264</v>
+        <v>5655152851.471657</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>5719973359.252007</v>
+        <v>5719973407.933083</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>5785278818.238548</v>
+        <v>5785278726.153224</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>5850997124.841733</v>
+        <v>5850997089.027887</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>5916471805.732624</v>
+        <v>5916471723.306364</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>5980035975.383335</v>
+        <v>5980035964.401997</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>6039731164.512467</v>
+        <v>6039731285.549781</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>6113306156.255916</v>
+        <v>6113306176.719815</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>6181481119.270269</v>
+        <v>6181481216.232187</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>6244802921.417152</v>
+        <v>6244803005.991053</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>6304348222.645543</v>
+        <v>6304348096.230016</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>6361403696.56326</v>
+        <v>6361403534.415044</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>6417232227.934476</v>
+        <v>6417232238.075184</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>6472944196.422645</v>
+        <v>6472944159.292516</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>6529437499.770573</v>
+        <v>6529437469.892169</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>6587390641.521606</v>
+        <v>6587390489.469971</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>6647278825.464473</v>
+        <v>6647278809.916987</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>6699593140.991073</v>
+        <v>6699593167.323715</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>6754004573.274057</v>
+        <v>6754004548.653852</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>6810619450.991553</v>
+        <v>6810619257.323249</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>6869462244.436758</v>
+        <v>6869462124.478017</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>6930500087.664008</v>
+        <v>6930500104.024191</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>6993657285.088503</v>
+        <v>6993657302.39854</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>7058828388.440185</v>
+        <v>7058828327.768727</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>7125889243.596323</v>
+        <v>7125889282.927869</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>7194705647.92477</v>
+        <v>7194705560.814962</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>7265138141.476666</v>
+        <v>7265138049.431465</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>7286674827.675342</v>
+        <v>7286674906.149315</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>7309558287.741806</v>
+        <v>7309558179.502066</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>7333626032.324787</v>
+        <v>7333626050.946001</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>7358727750.514552</v>
+        <v>7358727740.619854</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>7384724882.206844</v>
+        <v>7384724792.826748</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>7411489601.260645</v>
+        <v>7411489503.711075</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>7438635489.969053</v>
+        <v>7438635466.392411</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>7463048842.887211</v>
+        <v>7463048690.748085</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>7477001208.843323</v>
+        <v>7477001067.706567</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>7471590257.474747</v>
+        <v>7471590237.62411</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>7446715897.189297</v>
+        <v>7446715815.002117</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>7395326805.50883</v>
+        <v>7395326688.622565</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>7320318622.722843</v>
+        <v>7320318558.612363</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>7226854836.929454</v>
+        <v>7226854945.401361</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>7120971392.976465</v>
+        <v>7120971419.348848</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>7008525487.490668</v>
+        <v>7008525566.009562</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>6894608604.683352</v>
+        <v>6894608590.941424</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>6783301142.611933</v>
+        <v>6783301015.308498</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>6677652755.556043</v>
+        <v>6677652733.464935</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>6579781909.773047</v>
+        <v>6579781939.646484</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>6491021601.561974</v>
+        <v>6491021555.139821</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>6412082981.721952</v>
+        <v>6412082979.503783</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>6343204350.245391</v>
+        <v>6343204311.929138</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>6284277292.597638</v>
+        <v>6284277317.283093</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>6234954566.280275</v>
+        <v>6234954468.051277</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>6194728832.704028</v>
+        <v>6194728894.526765</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>6162998316.825184</v>
+        <v>6162998245.687046</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>6097763975.591144</v>
+        <v>6097763918.55304</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>6039963370.888142</v>
+        <v>6039963269.783826</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>5988850919.412841</v>
+        <v>5988850837.641372</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>5943717925.208285</v>
+        <v>5943717860.586609</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>5903900711.370809</v>
+        <v>5903900637.544336</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>5868786531.165619</v>
+        <v>5868786511.871737</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>5837814494.171743</v>
+        <v>5837814458.714975</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>5810474038.462492</v>
+        <v>5810473910.078222</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>5786305986.053871</v>
+        <v>5786305920.417681</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>5764896311.279302</v>
+        <v>5764896210.650786</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>5745866926.123823</v>
+        <v>5745866777.969874</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>5728887587.679415</v>
+        <v>5728887462.279037</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>5713663720.195012</v>
+        <v>5713663582.712515</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>5699933020.308332</v>
+        <v>5699932883.475022</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>5687461176.315512</v>
+        <v>5687461137.826176</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>5676042870.922323</v>
+        <v>5676042887.386271</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>5665492760.304035</v>
+        <v>5665492624.138155</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>5655646843.660695</v>
+        <v>5655646824.362292</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>5646361056.727077</v>
+        <v>5646361023.835223</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>5637507366.714754</v>
+        <v>5637507242.851229</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>5628970901.977776</v>
+        <v>5628970863.21699</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>5620650972.944633</v>
+        <v>5620650986.509445</v>
       </c>
     </row>
     <row r="452">
